--- a/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9A2784-912F-4E8A-BD2F-5A84E0596FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E35C92F-9C45-4B97-89D3-C8D7FD2130A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{933AD391-2C35-43DD-8B7E-80B576968C44}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{266710EE-A1B3-4931-A455-84486FC06251}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="401">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1207 +77,1171 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>80,56%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB2775E-BBCB-4194-AD91-9DEF50A82DCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0360B29A-C566-4BAA-B70B-1C31393A5203}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,7 +1942,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2348,7 +2312,7 @@
         <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -2357,13 +2321,13 @@
         <v>61685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2395,13 @@
         <v>26160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -2446,13 +2410,13 @@
         <v>36969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2461,13 +2425,13 @@
         <v>63129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2446,13 @@
         <v>47117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2497,13 +2461,13 @@
         <v>48760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -2512,13 +2476,13 @@
         <v>95877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2497,13 @@
         <v>429189</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -2548,13 +2512,13 @@
         <v>591113</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>1027</v>
@@ -2563,13 +2527,13 @@
         <v>1020303</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,7 +2589,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2644,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8732894B-5227-4A97-9254-8B6958A7D885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78037140-D2D7-4E70-B99D-1557AAAB6577}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2661,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2768,13 +2732,13 @@
         <v>49933</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -2783,13 +2747,13 @@
         <v>70779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -2798,13 +2762,13 @@
         <v>120712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2783,13 @@
         <v>52819</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2834,13 +2798,13 @@
         <v>66759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -2849,13 +2813,13 @@
         <v>119578</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2834,13 @@
         <v>311646</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H6" s="7">
         <v>470</v>
@@ -2885,13 +2849,13 @@
         <v>497006</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M6" s="7">
         <v>758</v>
@@ -2900,13 +2864,13 @@
         <v>808651</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2938,13 @@
         <v>4030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2989,13 +2953,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3004,13 +2968,13 @@
         <v>6454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +2989,13 @@
         <v>11878</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3040,13 +3004,13 @@
         <v>5165</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -3055,13 +3019,13 @@
         <v>17043</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3040,13 @@
         <v>102757</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3091,13 +3055,13 @@
         <v>75485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -3106,13 +3070,13 @@
         <v>178242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3144,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3195,13 +3159,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3210,13 +3174,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3195,13 @@
         <v>1043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3246,13 +3210,13 @@
         <v>2215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3261,13 +3225,13 @@
         <v>3258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3246,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3297,13 +3261,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3312,13 +3276,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3350,13 @@
         <v>54948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -3401,13 +3365,13 @@
         <v>74303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -3416,13 +3380,13 @@
         <v>129251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3401,13 @@
         <v>65740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -3452,13 +3416,13 @@
         <v>74139</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3467,13 +3431,13 @@
         <v>139879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3452,13 @@
         <v>438949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>555</v>
@@ -3503,13 +3467,13 @@
         <v>591423</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>953</v>
@@ -3518,13 +3482,13 @@
         <v>1030372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3544,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3FDF14-7752-46B7-9171-83256AEF87E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089D2005-770C-431E-9CB1-550358DB4123}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3616,7 +3580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3723,13 +3687,13 @@
         <v>28407</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3738,13 +3702,13 @@
         <v>43920</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -3753,13 +3717,13 @@
         <v>72327</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3738,13 @@
         <v>37929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3789,13 +3753,13 @@
         <v>53276</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -3804,13 +3768,13 @@
         <v>91205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,16 +3786,16 @@
         <v>311</v>
       </c>
       <c r="D6" s="7">
-        <v>287566</v>
+        <v>287565</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -3840,13 +3804,13 @@
         <v>457561</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>706</v>
@@ -3855,13 +3819,13 @@
         <v>745126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,7 +3837,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3929,13 +3893,13 @@
         <v>6076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3980,7 +3944,7 @@
         <v>8223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>251</v>
@@ -3998,10 +3962,10 @@
         <v>253</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4010,10 +3974,10 @@
         <v>22491</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>257</v>
@@ -4135,13 +4099,13 @@
         <v>868</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4156,7 +4120,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4165,13 +4129,13 @@
         <v>868</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4150,13 @@
         <v>1627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4201,13 +4165,13 @@
         <v>3596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4216,13 +4180,13 @@
         <v>5223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4201,13 @@
         <v>39533</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -4252,13 +4216,13 @@
         <v>30078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -4267,13 +4231,13 @@
         <v>69612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4305,13 @@
         <v>35351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4356,13 +4320,13 @@
         <v>49491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4371,13 +4335,13 @@
         <v>84842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4356,13 @@
         <v>47779</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4407,13 +4371,13 @@
         <v>71140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4422,13 +4386,13 @@
         <v>118919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4407,13 @@
         <v>505333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>562</v>
@@ -4458,13 +4422,13 @@
         <v>655874</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>1092</v>
@@ -4473,13 +4437,13 @@
         <v>1161207</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4499,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4554,7 +4518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FD6FE8-4B7C-46A0-BBB6-C28D17F3D8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8F98E0-D396-4400-8F60-E650833D1A8D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4571,7 +4535,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4678,13 +4642,13 @@
         <v>35945</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -4693,13 +4657,13 @@
         <v>76938</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>200</v>
@@ -4708,13 +4672,13 @@
         <v>112883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4693,13 @@
         <v>40236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -4744,13 +4708,13 @@
         <v>84290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -4759,13 +4723,13 @@
         <v>124526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4744,13 @@
         <v>208887</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H6" s="7">
         <v>722</v>
@@ -4795,13 +4759,13 @@
         <v>394292</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M6" s="7">
         <v>1025</v>
@@ -4810,13 +4774,13 @@
         <v>603178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4848,13 @@
         <v>13273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -4899,13 +4863,13 @@
         <v>6697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -4914,13 +4878,13 @@
         <v>19970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4899,13 @@
         <v>20217</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>348</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>52</v>
@@ -4950,13 +4914,13 @@
         <v>26032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>83</v>
@@ -4965,13 +4929,13 @@
         <v>46249</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4950,13 @@
         <v>261076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -5001,13 +4965,13 @@
         <v>353693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>840</v>
@@ -5016,13 +4980,13 @@
         <v>614769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5054,13 @@
         <v>1665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5111,7 +5075,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5120,13 +5084,13 @@
         <v>1665</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>148</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5105,13 @@
         <v>6939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5156,13 +5120,13 @@
         <v>5199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5171,13 +5135,13 @@
         <v>12138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5156,13 @@
         <v>103382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -5207,13 +5171,13 @@
         <v>73046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
@@ -5222,13 +5186,13 @@
         <v>176428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5260,13 @@
         <v>50883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -5311,13 +5275,13 @@
         <v>83635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -5326,13 +5290,13 @@
         <v>134518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5311,13 @@
         <v>67392</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -5362,13 +5326,13 @@
         <v>115521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -5377,13 +5341,13 @@
         <v>182913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5362,13 @@
         <v>573345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="H18" s="7">
         <v>1329</v>
@@ -5413,13 +5377,13 @@
         <v>821031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>2161</v>
@@ -5428,13 +5392,13 @@
         <v>1394375</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,7 +5454,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E35C92F-9C45-4B97-89D3-C8D7FD2130A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B1FE0B-2C4E-4D27-91F9-EEFEA4369AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{266710EE-A1B3-4931-A455-84486FC06251}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{825C776D-101D-41AE-9532-117558268F28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="407">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1138 +77,1156 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,88%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>7,8%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
   </si>
   <si>
     <t>10,69%</t>
@@ -1653,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0360B29A-C566-4BAA-B70B-1C31393A5203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37A220B-BDB0-4D7B-9F3E-940C931D5DB9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1942,7 +1960,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2464,10 +2482,10 @@
         <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -2476,13 +2494,13 @@
         <v>95877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2515,13 @@
         <v>429189</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -2512,13 +2530,13 @@
         <v>591113</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>1027</v>
@@ -2527,13 +2545,13 @@
         <v>1020303</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2607,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78037140-D2D7-4E70-B99D-1557AAAB6577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDB84A2-3F12-4DEE-A823-D90882530061}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2625,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2732,13 +2750,13 @@
         <v>49933</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -2747,13 +2765,13 @@
         <v>70779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -2762,13 +2780,13 @@
         <v>120712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2801,7 @@
         <v>52819</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>130</v>
@@ -2989,13 +3007,13 @@
         <v>11878</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3004,13 +3022,13 @@
         <v>5165</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -3019,13 +3037,13 @@
         <v>17043</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3058,13 @@
         <v>102757</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3225,13 +3243,13 @@
         <v>3258</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,10 +3264,10 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>88</v>
@@ -3261,13 +3279,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3276,13 +3294,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3368,13 @@
         <v>54948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -3365,10 +3383,10 @@
         <v>74303</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>197</v>
@@ -3544,7 +3562,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089D2005-770C-431E-9CB1-550358DB4123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF749E1-211E-4BD1-AD9D-CDE9A92840CB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,10 +3738,10 @@
         <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,7 +3762,7 @@
         <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3753,13 +3771,13 @@
         <v>53276</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -3768,13 +3786,13 @@
         <v>91205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,16 +3804,16 @@
         <v>311</v>
       </c>
       <c r="D6" s="7">
-        <v>287565</v>
+        <v>287566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -3804,13 +3822,13 @@
         <v>457561</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>706</v>
@@ -3819,13 +3837,13 @@
         <v>745126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3855,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3893,13 +3911,13 @@
         <v>6076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3908,13 +3926,13 @@
         <v>5572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3923,13 +3941,13 @@
         <v>11647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +3965,10 @@
         <v>176</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -3959,13 +3977,13 @@
         <v>14268</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3974,13 +3992,13 @@
         <v>22491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4013,13 @@
         <v>178234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -4010,13 +4028,13 @@
         <v>168234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>324</v>
@@ -4025,13 +4043,13 @@
         <v>346468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4117,13 @@
         <v>868</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4120,7 +4138,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4129,13 +4147,13 @@
         <v>868</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4168,13 @@
         <v>1627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4165,13 +4183,13 @@
         <v>3596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4183,10 +4201,10 @@
         <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4219,13 @@
         <v>39533</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -4216,10 +4234,10 @@
         <v>30078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>88</v>
@@ -4231,13 +4249,13 @@
         <v>69612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4323,13 @@
         <v>35351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4320,13 +4338,13 @@
         <v>49491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4335,13 +4353,13 @@
         <v>84842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4374,13 @@
         <v>47779</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -4371,13 +4389,13 @@
         <v>71140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4386,13 +4404,13 @@
         <v>118919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4425,13 @@
         <v>505333</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>562</v>
@@ -4422,13 +4440,13 @@
         <v>655874</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>1092</v>
@@ -4437,13 +4455,13 @@
         <v>1161207</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4517,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4518,7 +4536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8F98E0-D396-4400-8F60-E650833D1A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627B7DD7-074C-4A6E-B744-DACEB99F7511}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4535,7 +4553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4642,13 +4660,13 @@
         <v>35945</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -4657,13 +4675,13 @@
         <v>76938</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>200</v>
@@ -4672,13 +4690,13 @@
         <v>112883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4711,13 @@
         <v>40236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -4708,13 +4726,13 @@
         <v>84290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -4723,13 +4741,13 @@
         <v>124526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4762,13 @@
         <v>208887</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H6" s="7">
         <v>722</v>
@@ -4759,13 +4777,13 @@
         <v>394292</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>1025</v>
@@ -4774,13 +4792,13 @@
         <v>603178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4866,13 @@
         <v>13273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -4863,13 +4881,13 @@
         <v>6697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -4878,13 +4896,13 @@
         <v>19970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4917,13 @@
         <v>20217</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>297</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7">
         <v>52</v>
@@ -4914,13 +4932,13 @@
         <v>26032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
         <v>83</v>
@@ -4929,13 +4947,13 @@
         <v>46249</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4968,13 @@
         <v>261076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -4965,13 +4983,13 @@
         <v>353693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>840</v>
@@ -4980,13 +4998,13 @@
         <v>614769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5072,13 @@
         <v>1665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5075,7 +5093,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5087,7 +5105,7 @@
         <v>148</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>48</v>
@@ -5105,13 +5123,13 @@
         <v>6939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5120,13 +5138,13 @@
         <v>5199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5135,13 +5153,13 @@
         <v>12138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5174,13 @@
         <v>103382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -5171,13 +5189,13 @@
         <v>73046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
@@ -5186,13 +5204,13 @@
         <v>176428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5278,13 @@
         <v>50883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -5275,13 +5293,13 @@
         <v>83635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -5290,13 +5308,13 @@
         <v>134518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5329,13 @@
         <v>67392</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -5326,13 +5344,13 @@
         <v>115521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -5341,13 +5359,13 @@
         <v>182913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5380,13 @@
         <v>573345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H18" s="7">
         <v>1329</v>
@@ -5377,13 +5395,13 @@
         <v>821031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>2161</v>
@@ -5392,13 +5410,13 @@
         <v>1394375</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,7 +5472,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B1FE0B-2C4E-4D27-91F9-EEFEA4369AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E062103-BCBD-440F-9705-56C9C363A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{825C776D-101D-41AE-9532-117558268F28}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{050DEB9F-63B4-40C8-9335-9FA4EECACA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="413">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1189 +77,1207 @@
     <t>6,5%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>80,56%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37A220B-BDB0-4D7B-9F3E-940C931D5DB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F451EF26-3CE6-4B16-B54C-375A2AA77B94}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2330,7 +2348,7 @@
         <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -2339,13 +2357,13 @@
         <v>61685</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2431,13 @@
         <v>26160</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -2428,13 +2446,13 @@
         <v>36969</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2443,13 +2461,13 @@
         <v>63129</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2482,13 @@
         <v>47117</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2479,13 +2497,13 @@
         <v>48760</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -2494,13 +2512,13 @@
         <v>95877</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2533,13 @@
         <v>429189</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -2530,13 +2548,13 @@
         <v>591113</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>1027</v>
@@ -2545,13 +2563,13 @@
         <v>1020303</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2625,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDB84A2-3F12-4DEE-A823-D90882530061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90B5DBB-382D-432E-B28E-A63E4A8E90B0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2661,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2750,13 +2768,13 @@
         <v>49933</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -2765,13 +2783,13 @@
         <v>70779</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>108</v>
@@ -2780,13 +2798,13 @@
         <v>120712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2819,13 @@
         <v>52819</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2816,13 +2834,13 @@
         <v>66759</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>108</v>
@@ -2831,13 +2849,13 @@
         <v>119578</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2870,13 @@
         <v>311646</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H6" s="7">
         <v>470</v>
@@ -2867,13 +2885,13 @@
         <v>497006</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M6" s="7">
         <v>758</v>
@@ -2882,13 +2900,13 @@
         <v>808651</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2974,13 @@
         <v>4030</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2971,13 +2989,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -2986,13 +3004,13 @@
         <v>6454</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3025,13 @@
         <v>11878</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3022,13 +3040,13 @@
         <v>5165</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -3037,13 +3055,13 @@
         <v>17043</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3076,13 @@
         <v>102757</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3073,13 +3091,13 @@
         <v>75485</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -3088,13 +3106,13 @@
         <v>178242</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3180,13 @@
         <v>986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3177,13 +3195,13 @@
         <v>1100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3192,13 +3210,13 @@
         <v>2085</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3231,13 @@
         <v>1043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3228,13 +3246,13 @@
         <v>2215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3243,13 +3261,13 @@
         <v>3258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3282,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3279,13 +3297,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3294,13 +3312,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3386,13 @@
         <v>54948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -3383,13 +3401,13 @@
         <v>74303</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -3398,13 +3416,13 @@
         <v>129251</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3437,13 @@
         <v>65740</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -3434,13 +3452,13 @@
         <v>74139</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3449,13 +3467,13 @@
         <v>139879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3488,13 @@
         <v>438949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>555</v>
@@ -3485,13 +3503,13 @@
         <v>591423</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>953</v>
@@ -3500,13 +3518,13 @@
         <v>1030372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3580,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF749E1-211E-4BD1-AD9D-CDE9A92840CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD5C575-9C89-4329-A495-36DC68B91DFD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3598,7 +3616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3705,13 +3723,13 @@
         <v>28407</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3720,13 +3738,13 @@
         <v>43920</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -3735,13 +3753,13 @@
         <v>72327</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3774,13 @@
         <v>37929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3771,13 +3789,13 @@
         <v>53276</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -3786,13 +3804,13 @@
         <v>91205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3825,13 @@
         <v>287566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -3822,13 +3840,13 @@
         <v>457561</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>706</v>
@@ -3837,13 +3855,13 @@
         <v>745126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3929,13 @@
         <v>6076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3926,13 +3944,13 @@
         <v>5572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3941,13 +3959,13 @@
         <v>11647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3980,13 @@
         <v>8223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -3977,13 +3995,13 @@
         <v>14268</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3992,13 +4010,13 @@
         <v>22491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4031,13 @@
         <v>178234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -4028,13 +4046,13 @@
         <v>168234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>324</v>
@@ -4043,13 +4061,13 @@
         <v>346468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4135,13 @@
         <v>868</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4138,7 +4156,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4147,13 +4165,13 @@
         <v>868</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4186,13 @@
         <v>1627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4183,13 +4201,13 @@
         <v>3596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4198,7 +4216,7 @@
         <v>5223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>277</v>
@@ -4240,7 +4258,7 @@
         <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -4255,7 +4273,7 @@
         <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4341,13 @@
         <v>35351</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -4338,13 +4356,13 @@
         <v>49491</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4353,13 +4371,13 @@
         <v>84842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,10 +4392,10 @@
         <v>47779</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>295</v>
@@ -4517,7 +4535,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4536,7 +4554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627B7DD7-074C-4A6E-B744-DACEB99F7511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B5C63-984C-4F79-B99D-3B3AA75FA759}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4729,10 +4747,10 @@
         <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -4741,13 +4759,13 @@
         <v>124526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4780,13 @@
         <v>208887</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>722</v>
@@ -4777,13 +4795,13 @@
         <v>394292</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>1025</v>
@@ -4792,13 +4810,13 @@
         <v>603178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4884,13 @@
         <v>13273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -4881,13 +4899,13 @@
         <v>6697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -4896,13 +4914,13 @@
         <v>19970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4935,13 @@
         <v>20217</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="H9" s="7">
         <v>52</v>
@@ -4932,13 +4950,13 @@
         <v>26032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M9" s="7">
         <v>83</v>
@@ -4947,13 +4965,13 @@
         <v>46249</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>352</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4986,13 @@
         <v>261076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -4983,13 +5001,13 @@
         <v>353693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>840</v>
@@ -4998,13 +5016,13 @@
         <v>614769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5090,13 @@
         <v>1665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5093,7 +5111,7 @@
         <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5102,13 +5120,13 @@
         <v>1665</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5141,13 @@
         <v>6939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5138,13 +5156,13 @@
         <v>5199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5153,13 +5171,13 @@
         <v>12138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5192,13 @@
         <v>103382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -5189,13 +5207,13 @@
         <v>73046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
@@ -5204,13 +5222,13 @@
         <v>176428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5296,13 @@
         <v>50883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -5293,13 +5311,13 @@
         <v>83635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -5308,13 +5326,13 @@
         <v>134518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5347,13 @@
         <v>67392</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -5344,13 +5362,13 @@
         <v>115521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -5359,13 +5377,13 @@
         <v>182913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5398,13 @@
         <v>573345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="H18" s="7">
         <v>1329</v>
@@ -5395,13 +5413,13 @@
         <v>821031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M18" s="7">
         <v>2161</v>
@@ -5410,13 +5428,13 @@
         <v>1394375</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,7 +5490,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E062103-BCBD-440F-9705-56C9C363A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ED2EAA-AA03-4E82-8B5F-2EBEBF0D6019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{050DEB9F-63B4-40C8-9335-9FA4EECACA3D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{92BDB2CD-8478-42FB-A316-F2635721A836}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="410">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -977,307 +977,298 @@
     <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F451EF26-3CE6-4B16-B54C-375A2AA77B94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA166DB-3C9D-43DE-9FF9-C8A7433FC822}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,7 +1969,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2644,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90B5DBB-382D-432E-B28E-A63E4A8E90B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A62444-96C9-4B55-BEA2-771098240AA2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD5C575-9C89-4329-A495-36DC68B91DFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF19A1D-F2AF-489C-B591-41F621FAECC7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3822,7 +3813,7 @@
         <v>311</v>
       </c>
       <c r="D6" s="7">
-        <v>287566</v>
+        <v>287565</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>233</v>
@@ -3873,7 +3864,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4554,7 +4545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B5C63-984C-4F79-B99D-3B3AA75FA759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8D4571-2373-4D88-8293-E192300A60B0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4675,46 +4666,46 @@
         <v>62</v>
       </c>
       <c r="D4" s="7">
-        <v>35945</v>
+        <v>34162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>76938</v>
+        <v>69051</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>200</v>
       </c>
       <c r="N4" s="7">
-        <v>112883</v>
+        <v>103212</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,46 +4717,46 @@
         <v>60</v>
       </c>
       <c r="D5" s="7">
-        <v>40236</v>
+        <v>37708</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>84290</v>
+        <v>74590</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
       </c>
       <c r="N5" s="7">
-        <v>124526</v>
+        <v>112299</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,46 +4768,46 @@
         <v>303</v>
       </c>
       <c r="D6" s="7">
-        <v>208887</v>
+        <v>195195</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>722</v>
       </c>
       <c r="I6" s="7">
-        <v>394292</v>
+        <v>357092</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>1025</v>
       </c>
       <c r="N6" s="7">
-        <v>603178</v>
+        <v>552287</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4819,7 @@
         <v>425</v>
       </c>
       <c r="D7" s="7">
-        <v>285068</v>
+        <v>267065</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4843,7 +4834,7 @@
         <v>1019</v>
       </c>
       <c r="I7" s="7">
-        <v>555520</v>
+        <v>500733</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4858,7 +4849,7 @@
         <v>1444</v>
       </c>
       <c r="N7" s="7">
-        <v>840587</v>
+        <v>767798</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4881,46 +4872,46 @@
         <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>13273</v>
+        <v>12326</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>6697</v>
+        <v>5948</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>19970</v>
+        <v>18273</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,46 +4923,46 @@
         <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>20217</v>
+        <v>19130</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H9" s="7">
         <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>26032</v>
+        <v>23327</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M9" s="7">
         <v>83</v>
       </c>
       <c r="N9" s="7">
-        <v>46249</v>
+        <v>42457</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,7 +4974,7 @@
         <v>375</v>
       </c>
       <c r="D10" s="7">
-        <v>261076</v>
+        <v>241802</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>355</v>
@@ -4998,7 +4989,7 @@
         <v>465</v>
       </c>
       <c r="I10" s="7">
-        <v>353693</v>
+        <v>426464</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>358</v>
@@ -5013,7 +5004,7 @@
         <v>840</v>
       </c>
       <c r="N10" s="7">
-        <v>614769</v>
+        <v>668266</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>361</v>
@@ -5034,7 +5025,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5049,7 +5040,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5064,7 +5055,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5087,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1665</v>
+        <v>1569</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>364</v>
@@ -5117,16 +5108,16 @@
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>1665</v>
+        <v>1569</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,46 +5129,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>6939</v>
+        <v>6488</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>5199</v>
+        <v>4787</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>12138</v>
+        <v>11275</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,46 +5180,46 @@
         <v>154</v>
       </c>
       <c r="D14" s="7">
-        <v>103382</v>
+        <v>96929</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
       </c>
       <c r="I14" s="7">
-        <v>73046</v>
+        <v>66538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
       </c>
       <c r="N14" s="7">
-        <v>176428</v>
+        <v>163467</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5231,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5255,7 +5246,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5270,7 +5261,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5293,46 +5284,46 @@
         <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>50883</v>
+        <v>48056</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
       </c>
       <c r="I16" s="7">
-        <v>83635</v>
+        <v>74999</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>134518</v>
+        <v>123055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,46 +5335,46 @@
         <v>102</v>
       </c>
       <c r="D17" s="7">
-        <v>67392</v>
+        <v>63326</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
       </c>
       <c r="I17" s="7">
-        <v>115521</v>
+        <v>102704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
       </c>
       <c r="N17" s="7">
-        <v>182913</v>
+        <v>166030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,46 +5386,46 @@
         <v>832</v>
       </c>
       <c r="D18" s="7">
-        <v>573345</v>
+        <v>533926</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7">
         <v>1329</v>
       </c>
       <c r="I18" s="7">
-        <v>821031</v>
+        <v>850094</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M18" s="7">
         <v>2161</v>
       </c>
       <c r="N18" s="7">
-        <v>1394375</v>
+        <v>1384019</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5437,7 @@
         <v>1019</v>
       </c>
       <c r="D19" s="7">
-        <v>691620</v>
+        <v>645308</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5461,7 +5452,7 @@
         <v>1700</v>
       </c>
       <c r="I19" s="7">
-        <v>1020187</v>
+        <v>1027797</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5476,7 +5467,7 @@
         <v>2719</v>
       </c>
       <c r="N19" s="7">
-        <v>1711807</v>
+        <v>1673104</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
